--- a/Merged data.xlsx
+++ b/Merged data.xlsx
@@ -9,14 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10764" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10764" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cardio disease hospitalization" sheetId="2" r:id="rId1"/>
     <sheet name="Extreme heat event" sheetId="3" r:id="rId2"/>
     <sheet name="Demographic" sheetId="4" r:id="rId3"/>
-    <sheet name="Merged Data" sheetId="1" r:id="rId4"/>
+    <sheet name="Air Quality" sheetId="5" r:id="rId4"/>
+    <sheet name="Greenspaces" sheetId="6" r:id="rId5"/>
+    <sheet name="Merged Data" sheetId="1" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Greenspaces!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="166">
   <si>
     <t>State</t>
   </si>
@@ -486,13 +491,52 @@
   </si>
   <si>
     <t xml:space="preserve">Household income </t>
+  </si>
+  <si>
+    <t>Pollutant: Benzene</t>
+  </si>
+  <si>
+    <t>Pollutant</t>
+  </si>
+  <si>
+    <t>Data Comment</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>StateFIPS</t>
+  </si>
+  <si>
+    <t>Racial Justice And Access to Clean Outdoors</t>
+  </si>
+  <si>
+    <t>Waste Diversion and Recycling</t>
+  </si>
+  <si>
+    <t>Open Spaces and Beauty</t>
+  </si>
+  <si>
+    <t>Green Energy Rank</t>
+  </si>
+  <si>
+    <t>Overall Rank</t>
+  </si>
+  <si>
+    <t>Air Quality</t>
+  </si>
+  <si>
+    <t>Green Spaces</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +548,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -511,13 +556,49 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF594F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF493F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2FFD6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0FFEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DE0AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -547,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -561,6 +642,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2424,8 +2515,1901 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2011</v>
+      </c>
+      <c r="D2">
+        <v>0.49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>2011</v>
+      </c>
+      <c r="D3">
+        <v>0.43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>2011</v>
+      </c>
+      <c r="D4">
+        <v>0.46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>2011</v>
+      </c>
+      <c r="D5">
+        <v>0.64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>2011</v>
+      </c>
+      <c r="D6">
+        <v>0.87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>2011</v>
+      </c>
+      <c r="D7">
+        <v>0.86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>2011</v>
+      </c>
+      <c r="D8">
+        <v>0.69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>2011</v>
+      </c>
+      <c r="D9">
+        <v>0.53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>2011</v>
+      </c>
+      <c r="D10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>2011</v>
+      </c>
+      <c r="D11">
+        <v>0.42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>2011</v>
+      </c>
+      <c r="D12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>2011</v>
+      </c>
+      <c r="D13">
+        <v>0.66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>2011</v>
+      </c>
+      <c r="D14">
+        <v>0.66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>2011</v>
+      </c>
+      <c r="D15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>2011</v>
+      </c>
+      <c r="D16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>2011</v>
+      </c>
+      <c r="D17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>2011</v>
+      </c>
+      <c r="D18">
+        <v>0.52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>2011</v>
+      </c>
+      <c r="D19">
+        <v>0.51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>2011</v>
+      </c>
+      <c r="D20">
+        <v>0.8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>2011</v>
+      </c>
+      <c r="D21">
+        <v>0.81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>2011</v>
+      </c>
+      <c r="D22">
+        <v>0.67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>2011</v>
+      </c>
+      <c r="D23">
+        <v>0.72</v>
+      </c>
+      <c r="F23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>2011</v>
+      </c>
+      <c r="D24">
+        <v>0.42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>2011</v>
+      </c>
+      <c r="D25">
+        <v>0.54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>2011</v>
+      </c>
+      <c r="D26">
+        <v>0.39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>2011</v>
+      </c>
+      <c r="D27">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>2011</v>
+      </c>
+      <c r="D28">
+        <v>0.65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>2011</v>
+      </c>
+      <c r="D29">
+        <v>0.62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>2011</v>
+      </c>
+      <c r="D30">
+        <v>0.91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>2011</v>
+      </c>
+      <c r="D31">
+        <v>0.45</v>
+      </c>
+      <c r="F31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>2011</v>
+      </c>
+      <c r="D32">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>2011</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>2011</v>
+      </c>
+      <c r="D34">
+        <v>0.59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>2011</v>
+      </c>
+      <c r="D35">
+        <v>0.8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>2011</v>
+      </c>
+      <c r="D36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>2011</v>
+      </c>
+      <c r="D37">
+        <v>0.86</v>
+      </c>
+      <c r="F37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>2011</v>
+      </c>
+      <c r="D38">
+        <v>0.86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>2011</v>
+      </c>
+      <c r="D39">
+        <v>0.78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>2011</v>
+      </c>
+      <c r="D40">
+        <v>0.46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>2011</v>
+      </c>
+      <c r="D41">
+        <v>0.4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>2011</v>
+      </c>
+      <c r="D42">
+        <v>0.44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>2011</v>
+      </c>
+      <c r="D43">
+        <v>0.49</v>
+      </c>
+      <c r="F43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>2011</v>
+      </c>
+      <c r="D44">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>2011</v>
+      </c>
+      <c r="D45">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>2011</v>
+      </c>
+      <c r="D46">
+        <v>0.63</v>
+      </c>
+      <c r="F46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>2011</v>
+      </c>
+      <c r="D47">
+        <v>1.01</v>
+      </c>
+      <c r="F47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>2011</v>
+      </c>
+      <c r="D48">
+        <v>0.52</v>
+      </c>
+      <c r="F48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>2011</v>
+      </c>
+      <c r="D49">
+        <v>0.6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>2011</v>
+      </c>
+      <c r="D50">
+        <v>0.37</v>
+      </c>
+      <c r="F50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="19.578125" customWidth="1"/>
+    <col min="2" max="2" width="16.3125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="105" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="6">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>38</v>
+      </c>
+      <c r="F4" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="6">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="6">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6">
+        <v>40</v>
+      </c>
+      <c r="F10" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5">
+        <v>43</v>
+      </c>
+      <c r="F13" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="6">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6">
+        <v>45</v>
+      </c>
+      <c r="F14" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5">
+        <v>27</v>
+      </c>
+      <c r="F15" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6">
+        <v>49</v>
+      </c>
+      <c r="E16" s="6">
+        <v>41</v>
+      </c>
+      <c r="F16" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45</v>
+      </c>
+      <c r="D17" s="6">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6">
+        <v>32</v>
+      </c>
+      <c r="F17" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="6">
+        <v>50</v>
+      </c>
+      <c r="C18" s="6">
+        <v>47</v>
+      </c>
+      <c r="D18" s="6">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6">
+        <v>49</v>
+      </c>
+      <c r="F18" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="6">
+        <v>14</v>
+      </c>
+      <c r="C20" s="6">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>18</v>
+      </c>
+      <c r="F21" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="6">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6">
+        <v>24</v>
+      </c>
+      <c r="D22" s="6">
+        <v>4</v>
+      </c>
+      <c r="E22" s="6">
+        <v>11</v>
+      </c>
+      <c r="F22" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="5">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6">
+        <v>42</v>
+      </c>
+      <c r="C24" s="6">
+        <v>33</v>
+      </c>
+      <c r="D24" s="6">
+        <v>43</v>
+      </c>
+      <c r="E24" s="6">
+        <v>48</v>
+      </c>
+      <c r="F24" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5">
+        <v>17</v>
+      </c>
+      <c r="D25" s="5">
+        <v>41</v>
+      </c>
+      <c r="E25" s="5">
+        <v>35</v>
+      </c>
+      <c r="F25" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="6">
+        <v>40</v>
+      </c>
+      <c r="C26" s="6">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6">
+        <v>26</v>
+      </c>
+      <c r="E26" s="6">
+        <v>38</v>
+      </c>
+      <c r="F26" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="6">
+        <v>32</v>
+      </c>
+      <c r="C27" s="6">
+        <v>13</v>
+      </c>
+      <c r="D27" s="6">
+        <v>48</v>
+      </c>
+      <c r="E27" s="6">
+        <v>37</v>
+      </c>
+      <c r="F27" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6">
+        <v>16</v>
+      </c>
+      <c r="C28" s="6">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6">
+        <v>41</v>
+      </c>
+      <c r="E28" s="6">
+        <v>8</v>
+      </c>
+      <c r="F28" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5">
+        <v>22</v>
+      </c>
+      <c r="D29" s="5">
+        <v>32</v>
+      </c>
+      <c r="E29" s="5">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5">
+        <v>40</v>
+      </c>
+      <c r="D30" s="5">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5">
+        <v>22</v>
+      </c>
+      <c r="F30" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5">
+        <v>39</v>
+      </c>
+      <c r="C31" s="5">
+        <v>48</v>
+      </c>
+      <c r="D31" s="5">
+        <v>32</v>
+      </c>
+      <c r="E31" s="5">
+        <v>21</v>
+      </c>
+      <c r="F31" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="5">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5">
+        <v>30</v>
+      </c>
+      <c r="F32" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="5">
+        <v>29</v>
+      </c>
+      <c r="C33" s="5">
+        <v>23</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="E33" s="5">
+        <v>44</v>
+      </c>
+      <c r="F33" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="5">
+        <v>47</v>
+      </c>
+      <c r="C34" s="5">
+        <v>39</v>
+      </c>
+      <c r="D34" s="5">
+        <v>47</v>
+      </c>
+      <c r="E34" s="5">
+        <v>46</v>
+      </c>
+      <c r="F34" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="5">
+        <v>36</v>
+      </c>
+      <c r="C35" s="5">
+        <v>38</v>
+      </c>
+      <c r="D35" s="5">
+        <v>26</v>
+      </c>
+      <c r="E35" s="5">
+        <v>30</v>
+      </c>
+      <c r="F35" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="6">
+        <v>48</v>
+      </c>
+      <c r="C36" s="6">
+        <v>43</v>
+      </c>
+      <c r="D36" s="6">
+        <v>43</v>
+      </c>
+      <c r="E36" s="6">
+        <v>47</v>
+      </c>
+      <c r="F36" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="6">
+        <v>10</v>
+      </c>
+      <c r="C37" s="6">
+        <v>7</v>
+      </c>
+      <c r="D37" s="6">
+        <v>39</v>
+      </c>
+      <c r="E37" s="6">
+        <v>15</v>
+      </c>
+      <c r="F37" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="6">
+        <v>26</v>
+      </c>
+      <c r="C38" s="6">
+        <v>41</v>
+      </c>
+      <c r="D38" s="6">
+        <v>18</v>
+      </c>
+      <c r="E38" s="6">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="6">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>29</v>
+      </c>
+      <c r="E39" s="6">
+        <v>16</v>
+      </c>
+      <c r="F39" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="5">
+        <v>33</v>
+      </c>
+      <c r="C40" s="5">
+        <v>28</v>
+      </c>
+      <c r="D40" s="5">
+        <v>29</v>
+      </c>
+      <c r="E40" s="5">
+        <v>34</v>
+      </c>
+      <c r="F40" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="5">
+        <v>21</v>
+      </c>
+      <c r="C41" s="5">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5">
+        <v>38</v>
+      </c>
+      <c r="E41" s="5">
+        <v>35</v>
+      </c>
+      <c r="F41" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="6">
+        <v>20</v>
+      </c>
+      <c r="C42" s="6">
+        <v>20</v>
+      </c>
+      <c r="D42" s="6">
+        <v>21</v>
+      </c>
+      <c r="E42" s="6">
+        <v>27</v>
+      </c>
+      <c r="F42" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="6">
+        <v>36</v>
+      </c>
+      <c r="C43" s="6">
+        <v>44</v>
+      </c>
+      <c r="D43" s="6">
+        <v>21</v>
+      </c>
+      <c r="E43" s="6">
+        <v>13</v>
+      </c>
+      <c r="F43" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="5">
+        <v>43</v>
+      </c>
+      <c r="C44" s="5">
+        <v>46</v>
+      </c>
+      <c r="D44" s="5">
+        <v>12</v>
+      </c>
+      <c r="E44" s="5">
+        <v>13</v>
+      </c>
+      <c r="F44" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="6">
+        <v>8</v>
+      </c>
+      <c r="C45" s="6">
+        <v>21</v>
+      </c>
+      <c r="D45" s="6">
+        <v>40</v>
+      </c>
+      <c r="E45" s="6">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="5">
+        <v>19</v>
+      </c>
+      <c r="C46" s="5">
+        <v>37</v>
+      </c>
+      <c r="D46" s="5">
+        <v>13</v>
+      </c>
+      <c r="E46" s="5">
+        <v>12</v>
+      </c>
+      <c r="F46" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5">
+        <v>10</v>
+      </c>
+      <c r="D47" s="5">
+        <v>6</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2</v>
+      </c>
+      <c r="F47" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="6">
+        <v>34</v>
+      </c>
+      <c r="C48" s="6">
+        <v>49</v>
+      </c>
+      <c r="D48" s="6">
+        <v>17</v>
+      </c>
+      <c r="E48" s="6">
+        <v>25</v>
+      </c>
+      <c r="F48" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="6">
+        <v>18</v>
+      </c>
+      <c r="C49" s="6">
+        <v>14</v>
+      </c>
+      <c r="D49" s="6">
+        <v>19</v>
+      </c>
+      <c r="E49" s="6">
+        <v>29</v>
+      </c>
+      <c r="F49" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="5">
+        <v>41</v>
+      </c>
+      <c r="C50" s="5">
+        <v>51</v>
+      </c>
+      <c r="D50" s="5">
+        <v>24</v>
+      </c>
+      <c r="E50" s="5">
+        <v>22</v>
+      </c>
+      <c r="F50" s="5">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F51">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2435,9 +4419,11 @@
     <col min="3" max="3" width="11.9453125" customWidth="1"/>
     <col min="4" max="4" width="14.47265625" customWidth="1"/>
     <col min="5" max="5" width="15.15625" customWidth="1"/>
+    <col min="7" max="7" width="13.15625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2456,8 +4442,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
         <f>'Cardio disease hospitalization'!A2:A50</f>
         <v>Alabama</v>
@@ -2482,8 +4474,16 @@
         <f>Demographic!C2</f>
         <v>13.9%</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2">
+        <f>'Air Quality'!D2</f>
+        <v>0.49</v>
+      </c>
+      <c r="H2">
+        <f>Greenspaces!B2</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
         <f>'Cardio disease hospitalization'!A3:A51</f>
         <v>Arizona</v>
@@ -2508,8 +4508,16 @@
         <f>Demographic!C3</f>
         <v>18.5%</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3">
+        <f>'Air Quality'!D3</f>
+        <v>0.43</v>
+      </c>
+      <c r="H3">
+        <f>Greenspaces!B3</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
         <f>'Cardio disease hospitalization'!A4:A52</f>
         <v>Arkansas</v>
@@ -2534,8 +4542,16 @@
         <f>Demographic!C4</f>
         <v>16.7%</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4">
+        <f>'Air Quality'!D4</f>
+        <v>0.46</v>
+      </c>
+      <c r="H4">
+        <f>Greenspaces!B4</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="str">
         <f>'Cardio disease hospitalization'!A5:A53</f>
         <v>California</v>
@@ -2560,8 +4576,16 @@
         <f>Demographic!C5</f>
         <v>13.2%</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5">
+        <f>'Air Quality'!D5</f>
+        <v>0.64</v>
+      </c>
+      <c r="H5">
+        <f>Greenspaces!B5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str">
         <f>'Cardio disease hospitalization'!A6:A54</f>
         <v>Colorado</v>
@@ -2586,8 +4610,16 @@
         <f>Demographic!C6</f>
         <v>19.1%</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6">
+        <f>'Air Quality'!D6</f>
+        <v>0.87</v>
+      </c>
+      <c r="H6">
+        <f>Greenspaces!B6</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="str">
         <f>'Cardio disease hospitalization'!A7:A55</f>
         <v>Connecticut</v>
@@ -2612,8 +4644,16 @@
         <f>Demographic!C7</f>
         <v>23.4%</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7">
+        <f>'Air Quality'!D7</f>
+        <v>0.86</v>
+      </c>
+      <c r="H7">
+        <f>Greenspaces!B7</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="str">
         <f>'Cardio disease hospitalization'!A8:A56</f>
         <v>Delaware</v>
@@ -2638,8 +4678,16 @@
         <f>Demographic!C8</f>
         <v>20.2%</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8">
+        <f>'Air Quality'!D8</f>
+        <v>0.69</v>
+      </c>
+      <c r="H8">
+        <f>Greenspaces!B8</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="str">
         <f>'Cardio disease hospitalization'!A9:A57</f>
         <v>District of Columbia</v>
@@ -2664,8 +4712,16 @@
         <f>Demographic!C9</f>
         <v>16.5%</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9">
+        <f>'Air Quality'!D9</f>
+        <v>0.53</v>
+      </c>
+      <c r="H9">
+        <f>Greenspaces!B9</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="str">
         <f>'Cardio disease hospitalization'!A10:A58</f>
         <v>Florida</v>
@@ -2690,8 +4746,16 @@
         <f>Demographic!C10</f>
         <v>23.2%</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10">
+        <f>'Air Quality'!D10</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H10">
+        <f>Greenspaces!B10</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="str">
         <f>'Cardio disease hospitalization'!A11:A59</f>
         <v>Georgia</v>
@@ -2716,8 +4780,16 @@
         <f>Demographic!C11</f>
         <v>16.6%</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11">
+        <f>'Air Quality'!D11</f>
+        <v>0.42</v>
+      </c>
+      <c r="H11">
+        <f>Greenspaces!B11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="str">
         <f>'Cardio disease hospitalization'!A12:A60</f>
         <v>Idaho</v>
@@ -2742,8 +4814,16 @@
         <f>Demographic!C12</f>
         <v>17.5%</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12">
+        <f>'Air Quality'!D12</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H12">
+        <f>Greenspaces!B12</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="str">
         <f>'Cardio disease hospitalization'!A13:A61</f>
         <v>Illinois</v>
@@ -2768,8 +4848,16 @@
         <f>Demographic!C13</f>
         <v>19.9%</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13">
+        <f>'Air Quality'!D13</f>
+        <v>0.66</v>
+      </c>
+      <c r="H13">
+        <f>Greenspaces!B13</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="str">
         <f>'Cardio disease hospitalization'!A14:A62</f>
         <v>Indiana</v>
@@ -2794,8 +4882,16 @@
         <f>Demographic!C14</f>
         <v>16.7%</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14">
+        <f>'Air Quality'!D14</f>
+        <v>0.66</v>
+      </c>
+      <c r="H14">
+        <f>Greenspaces!B14</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="str">
         <f>'Cardio disease hospitalization'!A15:A63</f>
         <v>Iowa</v>
@@ -2820,8 +4916,16 @@
         <f>Demographic!C15</f>
         <v>19.2%</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15">
+        <f>'Air Quality'!D15</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H15">
+        <f>Greenspaces!B15</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="str">
         <f>'Cardio disease hospitalization'!A16:A64</f>
         <v>Kansas</v>
@@ -2846,8 +4950,16 @@
         <f>Demographic!C16</f>
         <v>14.6%</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16">
+        <f>'Air Quality'!D16</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H16">
+        <f>Greenspaces!B16</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="str">
         <f>'Cardio disease hospitalization'!A17:A65</f>
         <v>Kentucky</v>
@@ -2872,8 +4984,16 @@
         <f>Demographic!C17</f>
         <v>17.1%</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17">
+        <f>'Air Quality'!D17</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H17">
+        <f>Greenspaces!B17</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="str">
         <f>'Cardio disease hospitalization'!A18:A66</f>
         <v>Louisiana</v>
@@ -2898,8 +5018,16 @@
         <f>Demographic!C18</f>
         <v>19.3%</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18">
+        <f>'Air Quality'!D18</f>
+        <v>0.52</v>
+      </c>
+      <c r="H18">
+        <f>Greenspaces!B18</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="str">
         <f>'Cardio disease hospitalization'!A19:A67</f>
         <v>Maine</v>
@@ -2924,8 +5052,16 @@
         <f>Demographic!C19</f>
         <v>12.4%</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19">
+        <f>'Air Quality'!D19</f>
+        <v>0.51</v>
+      </c>
+      <c r="H19">
+        <f>Greenspaces!B19</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="str">
         <f>'Cardio disease hospitalization'!A20:A68</f>
         <v>Maryland</v>
@@ -2950,8 +5086,16 @@
         <f>Demographic!C20</f>
         <v>14.4%</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20">
+        <f>'Air Quality'!D20</f>
+        <v>0.8</v>
+      </c>
+      <c r="H20">
+        <f>Greenspaces!B20</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="str">
         <f>'Cardio disease hospitalization'!A21:A69</f>
         <v>Massachusetts</v>
@@ -2976,8 +5120,16 @@
         <f>Demographic!C21</f>
         <v>17.3%</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21">
+        <f>'Air Quality'!D21</f>
+        <v>0.81</v>
+      </c>
+      <c r="H21">
+        <f>Greenspaces!B21</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="str">
         <f>'Cardio disease hospitalization'!A22:A70</f>
         <v>Michigan</v>
@@ -3002,8 +5154,16 @@
         <f>Demographic!C22</f>
         <v>19.7%</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22">
+        <f>'Air Quality'!D22</f>
+        <v>0.67</v>
+      </c>
+      <c r="H22">
+        <f>Greenspaces!B22</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="str">
         <f>'Cardio disease hospitalization'!A23:A71</f>
         <v>Minnesota</v>
@@ -3028,8 +5188,16 @@
         <f>Demographic!C23</f>
         <v>22.3%</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23">
+        <f>'Air Quality'!D23</f>
+        <v>0.72</v>
+      </c>
+      <c r="H23">
+        <f>Greenspaces!B23</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
         <f>'Cardio disease hospitalization'!A24:A72</f>
         <v>Mississippi</v>
@@ -3054,8 +5222,16 @@
         <f>Demographic!C24</f>
         <v>15.6%</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24">
+        <f>'Air Quality'!D24</f>
+        <v>0.42</v>
+      </c>
+      <c r="H24">
+        <f>Greenspaces!B24</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
         <f>'Cardio disease hospitalization'!A25:A73</f>
         <v>Missouri</v>
@@ -3080,8 +5256,16 @@
         <f>Demographic!C25</f>
         <v>21.5%</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25">
+        <f>'Air Quality'!D25</f>
+        <v>0.54</v>
+      </c>
+      <c r="H25">
+        <f>Greenspaces!B25</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
         <f>'Cardio disease hospitalization'!A26:A74</f>
         <v>Montana</v>
@@ -3106,8 +5290,16 @@
         <f>Demographic!C26</f>
         <v>12.4%</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26">
+        <f>'Air Quality'!D26</f>
+        <v>0.39</v>
+      </c>
+      <c r="H26">
+        <f>Greenspaces!B26</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="str">
         <f>'Cardio disease hospitalization'!A27:A75</f>
         <v>Nebraska</v>
@@ -3132,8 +5324,16 @@
         <f>Demographic!C27</f>
         <v>16.0%</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27">
+        <f>'Air Quality'!D27</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H27">
+        <f>Greenspaces!B27</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="str">
         <f>'Cardio disease hospitalization'!A28:A76</f>
         <v>Nevada</v>
@@ -3158,8 +5358,16 @@
         <f>Demographic!C28</f>
         <v>19.8%</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28">
+        <f>'Air Quality'!D28</f>
+        <v>0.65</v>
+      </c>
+      <c r="H28">
+        <f>Greenspaces!B28</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="str">
         <f>'Cardio disease hospitalization'!A29:A77</f>
         <v>New Hampshire</v>
@@ -3184,8 +5392,16 @@
         <f>Demographic!C29</f>
         <v>19.6%</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29">
+        <f>'Air Quality'!D29</f>
+        <v>0.62</v>
+      </c>
+      <c r="H29">
+        <f>Greenspaces!B29</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="str">
         <f>'Cardio disease hospitalization'!A30:A78</f>
         <v>New Jersey</v>
@@ -3210,8 +5426,16 @@
         <f>Demographic!C30</f>
         <v>14.3%</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G30">
+        <f>'Air Quality'!D30</f>
+        <v>0.91</v>
+      </c>
+      <c r="H30">
+        <f>Greenspaces!B30</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="str">
         <f>'Cardio disease hospitalization'!A31:A79</f>
         <v>New Mexico</v>
@@ -3236,8 +5460,16 @@
         <f>Demographic!C31</f>
         <v>20.4%</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G31">
+        <f>'Air Quality'!D31</f>
+        <v>0.45</v>
+      </c>
+      <c r="H31">
+        <f>Greenspaces!B31</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="str">
         <f>'Cardio disease hospitalization'!A32:A80</f>
         <v>New York</v>
@@ -3262,8 +5494,16 @@
         <f>Demographic!C32</f>
         <v>22.1%</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G32">
+        <f>'Air Quality'!D32</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H32">
+        <f>Greenspaces!B32</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="str">
         <f>'Cardio disease hospitalization'!A33:A81</f>
         <v>North Carolina</v>
@@ -3288,8 +5528,16 @@
         <f>Demographic!C33</f>
         <v>14.2%</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G33">
+        <f>'Air Quality'!D33</f>
+        <v>0.5</v>
+      </c>
+      <c r="H33">
+        <f>Greenspaces!B33</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="str">
         <f>'Cardio disease hospitalization'!A34:A82</f>
         <v>North Dakota</v>
@@ -3314,8 +5562,16 @@
         <f>Demographic!C34</f>
         <v>18.6%</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G34">
+        <f>'Air Quality'!D34</f>
+        <v>0.59</v>
+      </c>
+      <c r="H34">
+        <f>Greenspaces!B34</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="str">
         <f>'Cardio disease hospitalization'!A35:A83</f>
         <v>Ohio</v>
@@ -3340,8 +5596,16 @@
         <f>Demographic!C35</f>
         <v>17.8%</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G35">
+        <f>'Air Quality'!D35</f>
+        <v>0.8</v>
+      </c>
+      <c r="H35">
+        <f>Greenspaces!B35</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="str">
         <f>'Cardio disease hospitalization'!A36:A84</f>
         <v>Oklahoma</v>
@@ -3366,8 +5630,16 @@
         <f>Demographic!C36</f>
         <v>19.7%</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G36">
+        <f>'Air Quality'!D36</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H36">
+        <f>Greenspaces!B36</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="str">
         <f>'Cardio disease hospitalization'!A37:A85</f>
         <v>Oregon</v>
@@ -3392,8 +5664,16 @@
         <f>Demographic!C37</f>
         <v>15.7%</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G37">
+        <f>'Air Quality'!D37</f>
+        <v>0.86</v>
+      </c>
+      <c r="H37">
+        <f>Greenspaces!B37</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="str">
         <f>'Cardio disease hospitalization'!A38:A86</f>
         <v>Pennsylvania</v>
@@ -3418,8 +5698,16 @@
         <f>Demographic!C38</f>
         <v>15.4%</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G38">
+        <f>'Air Quality'!D38</f>
+        <v>0.86</v>
+      </c>
+      <c r="H38">
+        <f>Greenspaces!B38</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="str">
         <f>'Cardio disease hospitalization'!A39:A87</f>
         <v>Rhode Island</v>
@@ -3444,8 +5732,16 @@
         <f>Demographic!C39</f>
         <v>18.3%</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G39">
+        <f>'Air Quality'!D39</f>
+        <v>0.78</v>
+      </c>
+      <c r="H39">
+        <f>Greenspaces!B39</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="str">
         <f>'Cardio disease hospitalization'!A40:A88</f>
         <v>South Carolina</v>
@@ -3470,8 +5766,16 @@
         <f>Demographic!C40</f>
         <v>16.7%</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G40">
+        <f>'Air Quality'!D40</f>
+        <v>0.46</v>
+      </c>
+      <c r="H40">
+        <f>Greenspaces!B40</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="str">
         <f>'Cardio disease hospitalization'!A41:A89</f>
         <v>South Dakota</v>
@@ -3496,8 +5800,16 @@
         <f>Demographic!C41</f>
         <v>18.1%</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G41">
+        <f>'Air Quality'!D41</f>
+        <v>0.4</v>
+      </c>
+      <c r="H41">
+        <f>Greenspaces!B41</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="str">
         <f>'Cardio disease hospitalization'!A42:A90</f>
         <v>Tennessee</v>
@@ -3522,8 +5834,16 @@
         <f>Demographic!C42</f>
         <v>15.8%</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G42">
+        <f>'Air Quality'!D42</f>
+        <v>0.44</v>
+      </c>
+      <c r="H42">
+        <f>Greenspaces!B42</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="str">
         <f>'Cardio disease hospitalization'!A43:A91</f>
         <v>Texas</v>
@@ -3548,8 +5868,16 @@
         <f>Demographic!C43</f>
         <v>18.6%</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G43">
+        <f>'Air Quality'!D43</f>
+        <v>0.49</v>
+      </c>
+      <c r="H43">
+        <f>Greenspaces!B43</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="str">
         <f>'Cardio disease hospitalization'!A44:A92</f>
         <v>Utah</v>
@@ -3574,8 +5902,16 @@
         <f>Demographic!C44</f>
         <v>14.6%</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G44">
+        <f>'Air Quality'!D44</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H44">
+        <f>Greenspaces!B44</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="str">
         <f>'Cardio disease hospitalization'!A45:A93</f>
         <v>Vermont</v>
@@ -3600,8 +5936,16 @@
         <f>Demographic!C45</f>
         <v>17.3%</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G45">
+        <f>'Air Quality'!D45</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H45">
+        <f>Greenspaces!B45</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="str">
         <f>'Cardio disease hospitalization'!A46:A94</f>
         <v>Virginia</v>
@@ -3626,8 +5970,16 @@
         <f>Demographic!C46</f>
         <v>19.9%</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G46">
+        <f>'Air Quality'!D46</f>
+        <v>0.63</v>
+      </c>
+      <c r="H46">
+        <f>Greenspaces!B46</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="str">
         <f>'Cardio disease hospitalization'!A47:A95</f>
         <v>Washington</v>
@@ -3652,8 +6004,16 @@
         <f>Demographic!C47</f>
         <v>20.3%</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G47">
+        <f>'Air Quality'!D47</f>
+        <v>1.01</v>
+      </c>
+      <c r="H47">
+        <f>Greenspaces!B47</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="str">
         <f>'Cardio disease hospitalization'!A48:A96</f>
         <v>West Virginia</v>
@@ -3678,8 +6038,16 @@
         <f>Demographic!C48</f>
         <v>20.1%</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G48">
+        <f>'Air Quality'!D48</f>
+        <v>0.52</v>
+      </c>
+      <c r="H48">
+        <f>Greenspaces!B48</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="str">
         <f>'Cardio disease hospitalization'!A49:A97</f>
         <v>Wisconsin</v>
@@ -3704,8 +6072,16 @@
         <f>Demographic!C49</f>
         <v>19.9%</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G49">
+        <f>'Air Quality'!D49</f>
+        <v>0.6</v>
+      </c>
+      <c r="H49">
+        <f>Greenspaces!B49</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="str">
         <f>'Cardio disease hospitalization'!A50:A98</f>
         <v>Wyoming</v>
@@ -3729,6 +6105,14 @@
       <c r="F50" t="str">
         <f>Demographic!C50</f>
         <v>10.9%</v>
+      </c>
+      <c r="G50">
+        <f>'Air Quality'!D50</f>
+        <v>0.37</v>
+      </c>
+      <c r="H50">
+        <f>Greenspaces!B50</f>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
